--- a/clean_data/appareil_finaL.xlsx
+++ b/clean_data/appareil_finaL.xlsx
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>91</v>
+        <v>458</v>
       </c>
       <c r="D2" t="n">
-        <v>15689</v>
+        <v>33081</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.58%</t>
+          <t>1.38%</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>21.45</v>
+        <v>19.55</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Electric URL</t>
+          <t>electric URL</t>
         </is>
       </c>
     </row>
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>73</v>
+        <v>449</v>
       </c>
       <c r="D3" t="n">
-        <v>9077</v>
+        <v>27057</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.66%</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>15.34</v>
+        <v>13.97</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Electric URL</t>
+          <t>electric URL</t>
         </is>
       </c>
     </row>
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.19%</t>
+          <t>11.01%</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.39</v>
+        <v>4.21</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Electric URL</t>
+          <t>electric URL</t>
         </is>
       </c>
     </row>
@@ -558,26 +558,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ordinateur</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>91</v>
+        <v>1270</v>
       </c>
       <c r="D5" t="n">
-        <v>15689</v>
+        <v>71407</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.58%</t>
+          <t>1.78%</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>21.45</v>
+        <v>12.77</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Manufacturer</t>
+          <t>tesla KWD</t>
         </is>
       </c>
     </row>
@@ -587,26 +587,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mobile</t>
+          <t>Ordinateur</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>73</v>
+        <v>725</v>
       </c>
       <c r="D6" t="n">
-        <v>9077</v>
+        <v>59012</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>15.34</v>
+        <v>19.42</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Manufacturer</t>
+          <t>tesla KWD</t>
         </is>
       </c>
     </row>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
-        <v>84</v>
+        <v>637</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.19%</t>
+          <t>5.34%</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.39</v>
+        <v>5.96</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Manufacturer</t>
+          <t>tesla KWD</t>
         </is>
       </c>
     </row>
@@ -664,7 +664,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tesla KWD</t>
+          <t>electric KWD</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tesla KWD</t>
+          <t>electric KWD</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tesla KWD</t>
+          <t>electric KWD</t>
         </is>
       </c>
     </row>
@@ -732,26 +732,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ordinateur</t>
+          <t>Mobile</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>91</v>
+        <v>408346</v>
       </c>
       <c r="D11" t="n">
-        <v>15689</v>
+        <v>21087244</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.58%</t>
+          <t>1.94%</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>21.45</v>
+        <v>13.94</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Electric KWD</t>
+          <t>global</t>
         </is>
       </c>
     </row>
@@ -761,26 +761,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mobile</t>
+          <t>Ordinateur</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>73</v>
+        <v>255313</v>
       </c>
       <c r="D12" t="n">
-        <v>9077</v>
+        <v>17067753</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>15.34</v>
+        <v>27.67</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Electric KWD</t>
+          <t>global</t>
         </is>
       </c>
     </row>
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>12652</v>
       </c>
       <c r="D13" t="n">
-        <v>84</v>
+        <v>318293</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.19%</t>
+          <t>3.97%</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.39</v>
+        <v>8.17</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Electric KWD</t>
+          <t>global</t>
         </is>
       </c>
     </row>
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>408346</v>
+        <v>6456</v>
       </c>
       <c r="D14" t="n">
-        <v>21087244</v>
+        <v>599182</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.94%</t>
+          <t>1.08%</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>13.94</v>
+        <v>11.92</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>manufacturer URL</t>
         </is>
       </c>
     </row>
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>255313</v>
+        <v>3353</v>
       </c>
       <c r="D15" t="n">
-        <v>17067753</v>
+        <v>349886</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.96%</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>27.67</v>
+        <v>20.43</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>manufacturer URL</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>12652</v>
+        <v>194</v>
       </c>
       <c r="D16" t="n">
-        <v>318293</v>
+        <v>3927</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.97%</t>
+          <t>4.94%</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>8.17</v>
+        <v>7.89</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>manufacturer URL</t>
         </is>
       </c>
     </row>
